--- a/Test Data Driven/AI-Generated/TestCase-00001.xlsx
+++ b/Test Data Driven/AI-Generated/TestCase-00001.xlsx
@@ -471,17 +471,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>wwood</t>
+          <t>alexanderdaniel</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>logangreen</t>
+          <t>frederickduane</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>cdunn</t>
+          <t>brandon15</t>
         </is>
       </c>
     </row>

--- a/Test Data Driven/AI-Generated/TestCase-00001.xlsx
+++ b/Test Data Driven/AI-Generated/TestCase-00001.xlsx
@@ -446,42 +446,42 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="24" customWidth="1" min="1" max="1"/>
-    <col width="23" customWidth="1" min="2" max="2"/>
-    <col width="25" customWidth="1" min="3" max="3"/>
+    <col width="20" customWidth="1" min="1" max="1"/>
+    <col width="22" customWidth="1" min="2" max="2"/>
+    <col width="22" customWidth="1" min="3" max="3"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>var_1_input_first_name</t>
+          <t>var_1_input_object</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>var_2_input_last_name</t>
+          <t>var_2_input_object_1</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>var_3_input_postal_code</t>
+          <t>var_3_input_object_2</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>alexanderdaniel</t>
+          <t>bradleystewart</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>frederickduane</t>
+          <t>Sample text</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>brandon15</t>
+          <t>ejennings</t>
         </is>
       </c>
     </row>

--- a/Test Data Driven/AI-Generated/TestCase-00001.xlsx
+++ b/Test Data Driven/AI-Generated/TestCase-00001.xlsx
@@ -446,42 +446,42 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="20" customWidth="1" min="1" max="1"/>
-    <col width="22" customWidth="1" min="2" max="2"/>
-    <col width="22" customWidth="1" min="3" max="3"/>
+    <col width="24" customWidth="1" min="1" max="1"/>
+    <col width="23" customWidth="1" min="2" max="2"/>
+    <col width="25" customWidth="1" min="3" max="3"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>var_1_input_object</t>
+          <t>var_1_input_first_name</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>var_2_input_object_1</t>
+          <t>var_2_input_last_name</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>var_3_input_object_2</t>
+          <t>var_3_input_postal_code</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>bradleystewart</t>
+          <t>amandarobinson</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Sample text</t>
+          <t>sextondeanna</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>ejennings</t>
+          <t>pamelapatterson</t>
         </is>
       </c>
     </row>

--- a/Test Data Driven/AI-Generated/TestCase-00001.xlsx
+++ b/Test Data Driven/AI-Generated/TestCase-00001.xlsx
@@ -446,42 +446,42 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="24" customWidth="1" min="1" max="1"/>
-    <col width="23" customWidth="1" min="2" max="2"/>
-    <col width="25" customWidth="1" min="3" max="3"/>
+    <col width="20" customWidth="1" min="1" max="1"/>
+    <col width="22" customWidth="1" min="2" max="2"/>
+    <col width="22" customWidth="1" min="3" max="3"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>var_1_input_first_name</t>
+          <t>var_1_input_object</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>var_2_input_last_name</t>
+          <t>var_2_input_object_1</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>var_3_input_postal_code</t>
+          <t>var_3_input_object_2</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>amandarobinson</t>
+          <t>cynthiacole</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>sextondeanna</t>
+          <t>Sample text</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>pamelapatterson</t>
+          <t>fphillips</t>
         </is>
       </c>
     </row>

--- a/Test Data Driven/AI-Generated/TestCase-00001.xlsx
+++ b/Test Data Driven/AI-Generated/TestCase-00001.xlsx
@@ -471,7 +471,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>cynthiacole</t>
+          <t>mariemiller</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -481,7 +481,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>fphillips</t>
+          <t>heatheraguirre</t>
         </is>
       </c>
     </row>

--- a/Test Data Driven/AI-Generated/TestCase-00001.xlsx
+++ b/Test Data Driven/AI-Generated/TestCase-00001.xlsx
@@ -471,7 +471,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>mariemiller</t>
+          <t>thodges</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -481,7 +481,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>heatheraguirre</t>
+          <t>holly23</t>
         </is>
       </c>
     </row>

--- a/Test Data Driven/AI-Generated/TestCase-00001.xlsx
+++ b/Test Data Driven/AI-Generated/TestCase-00001.xlsx
@@ -471,7 +471,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>thodges</t>
+          <t>flynndaniel</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -481,7 +481,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>holly23</t>
+          <t>znguyen</t>
         </is>
       </c>
     </row>

--- a/Test Data Driven/AI-Generated/TestCase-00001.xlsx
+++ b/Test Data Driven/AI-Generated/TestCase-00001.xlsx
@@ -471,17 +471,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>flynndaniel</t>
+          <t>John</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Sample text</t>
+          <t>Doe</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>znguyen</t>
+          <t>12345</t>
         </is>
       </c>
     </row>

--- a/Test Data Driven/AI-Generated/TestCase-00001.xlsx
+++ b/Test Data Driven/AI-Generated/TestCase-00001.xlsx
@@ -446,42 +446,42 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="20" customWidth="1" min="1" max="1"/>
-    <col width="22" customWidth="1" min="2" max="2"/>
-    <col width="22" customWidth="1" min="3" max="3"/>
+    <col width="24" customWidth="1" min="1" max="1"/>
+    <col width="23" customWidth="1" min="2" max="2"/>
+    <col width="25" customWidth="1" min="3" max="3"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>var_1_input_object</t>
+          <t>var_1_input_first_name</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>var_2_input_object_1</t>
+          <t>var_2_input_last_name</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>var_3_input_object_2</t>
+          <t>var_3_input_postal_code</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>John</t>
+          <t>test</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Doe</t>
+          <t>test</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>12345</t>
+          <t>test</t>
         </is>
       </c>
     </row>
